--- a/diary.xlsx
+++ b/diary.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Safety" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -44,13 +57,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -129,10 +157,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -170,69 +198,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,54 +286,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +342,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +351,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +360,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +368,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -371,7 +400,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,13 +413,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -410,10 +438,327 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>User ID</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>User Name</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Entry Type</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Entry Text</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Date Time</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="3" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>фаааф]а</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>2025-10-16 21:26:23</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="3" t="n">
+        <v>966785574</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>appcaa</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Лиана</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>Мне грустно и страшно. Я не знаю что делать дальше</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>2025-10-18 15:29:18</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="107.25" customHeight="1">
+      <c r="A4" s="3" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>Сегодня опять не получилось нормально выспаться. Проснулся как будто уже уставший. Всё время прокручиваю в голове завтрашнюю контрольную по математике. Я вроде готовился, но как только думаю об этом, живот сжимается, сердце начинает биться сильнее, и в голове будто шум.
+В школе стараюсь делать вид, что всё нормально. Шучу с ребятами, улыбаюсь. Но внутри как будто ком. Кажется, что все замечают, какой я странный. Когда учитель спрашивает кого-то, я сразу напрягаюсь — вдруг выберет меня, вдруг забуду всё, даже своё имя.
+После уроков хотел пойти домой пешком, но начался дождь, и я застрял под навесом у остановки. Стоял там, слушал, как капли бьют по крыше, и думал, что, может, когда-нибудь я просто смогу не бояться. Просто жить, не переживая о каждом слове, взгляде, звуке.
+Мама спрашивает, почему я такой молчаливый. Не знаю, что ей сказать. Я не грустный — просто… тревожный. Всё время кажется, что вот-вот случится что-то плохое, но я не знаю что именно.
+Может, завтра будет легче.</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>2025-10-18 22:34:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Всё кажется каким-то серым. Даже когда солнце светит, будто свет проходит сквозь дым. Люди вокруг смеются, говорят о своих делах, а я — как будто за стеклом. Слышу их, но не чувствую ничего.
+Иногда думаю, зачем вообще всё это. Не потому что хочу что-то сделать с собой, а просто… не вижу смысла. Как будто всё давно потеряло вкус. Даже музыка, которая раньше спасала, теперь только раздражает.
+Внутри будто шум, постоянный, не отпускает. Хочу выключить голову хоть на минуту, но она не замолкает. Каждый день — борьба между «надо» и «не могу».
+Мама спрашивает: «Что с тобой?» А я не могу объяснить. Это не грусть, не злость — это пустота. Словно меня нет.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-10-18 22:35:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>950157812</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sonyfication</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>все хорошо</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-10-18 23:15:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Сегодня было немного… странно. Утром всё было как обычно — тяжело встать, тяжело дышать, тяжело просто быть. Но на последнем уроке Алина заметила, что я тихий, и спросила:
+— Ты в порядке?
+Я хотел соврать, как всегда. Сказать, что просто устал. Но почему-то не смог. Просто пожал плечами, и она не стала давить, только сказала:
+— Если что — я рядом.
+Эти слова почему-то застряли у меня в голове. «Я рядом». Не помню, когда в последний раз кто-то так говорил. Когда шёл домой, подумал, что, может, не всё потеряно. Может, я не один.
+Дома всё то же — мама занята, телефон светится, а я лежу в темноте и думаю, что, может, стоит поговорить с кем-то по-настоящему. Не знаю, как начать. Страшно, что не поймут. Но страшнее, что всё останется как есть.
+Пока просто записываю сюда. Это хоть как-то помогает.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-10-19 11:02:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>хочу покончить с этой жизнью</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-10-19 11:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>хочу умереть</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-10-19 11:05:32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,22 +779,22 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>User Name</t>
+          <t>Detection Time</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Entry Type</t>
+          <t>Crisis Type</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Entry Text</t>
+          <t>Context</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Date Time</t>
+          <t>Text Sample</t>
         </is>
       </c>
     </row>
@@ -464,22 +809,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>2025-10-19 11:02:20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>diary_entry</t>
+          <t>суицидальные мысли</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>фаааф]а</t>
+          <t>diary</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-16 21:26:23</t>
+          <t>хочу покончить с этой жизнью</t>
         </is>
       </c>
     </row>
@@ -494,52 +839,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gg</t>
+          <t>2025-10-19 11:05:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>diary_entry</t>
+          <t>Суицидальные мысли</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sgfeg</t>
+          <t>diary</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-10-16 21:28:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>966785574</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>appcaa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Лиана</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>diary_entry</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Мне грустно и страшно. Я не знаю что делать дальше</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-10-18 15:29:18</t>
+          <t>хочу умереть</t>
         </is>
       </c>
     </row>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,37 @@
       <c r="G9" t="inlineStr">
         <is>
           <t>2025-10-19 11:05:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>послушай это</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:27:27</t>
         </is>
       </c>
     </row>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,100 @@
           <t>послушай это</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>2025-10-19 12:27:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Чувствую себя хорошо, но ещё есть тревога</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:34:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Хочу умереть</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:51:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6893133357</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nadzh_k</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>diary_entry</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Хочу начать любить свою жизнь</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-10-19 15:19:09</t>
         </is>
       </c>
     </row>
@@ -789,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,6 +979,36 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:51:36</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Суицидальные мысли</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>diary</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Хочу умереть</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
